--- a/note/01.요구사항 정의서.xlsx
+++ b/note/01.요구사항 정의서.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="171">
   <si>
     <t>문서 이력 관리</t>
   </si>
@@ -107,22 +107,6 @@
   </si>
   <si>
     <t>메인화면</t>
-  </si>
-  <si>
-    <t>어플의 첫번째 화면, 2개 열로 챌린지 출력</t>
-  </si>
-  <si>
-    <t>메뉴바를 통해 즐겨찾기한 챌린지 확인 가능
-메인 화면에서 바로 즐겨찾기를 추가/제거 가능</t>
-  </si>
-  <si>
-    <t>검색 기능을 통해 인기검색어와 필터를 통해 본인이 찾는 챌린지를 쉽게 찾을 수 있음</t>
-  </si>
-  <si>
-    <t>바로 시작할 수 있는 챌린지, 신규 개설된 챌린지 등 챌린지 성격 구분하여 화면에 출력</t>
-  </si>
-  <si>
-    <t>광고 베너를 통해 수익 창출 가능</t>
   </si>
   <si>
     <t>앱 챌린지</t>
@@ -135,9 +119,6 @@
 선호하는 챌린지 투표 가능</t>
   </si>
   <si>
-    <t>원하는 챌린지 없을경우 주제, 인증방법 등을 기술하여 개설 신청</t>
-  </si>
-  <si>
     <t>관리자 승인(웹 진행) 후 투표 진행</t>
   </si>
   <si>
@@ -148,12 +129,6 @@
     <t>챌린지(비공개)</t>
   </si>
   <si>
-    <t>시작 날짜 와 기간, 인증 조건, 참가비 등을 설정하여 등록 한다</t>
-  </si>
-  <si>
-    <t>관리자 승인 후 게시가 되도록 한다</t>
-  </si>
-  <si>
     <t>챌린지 초대  QR코드 생성 가능</t>
   </si>
   <si>
@@ -282,9 +257,6 @@
     <t>자주 묻는 질문이나 흥미 있는 질문과 답을 보여준다.</t>
   </si>
   <si>
-    <t>기능별 사용 DB(Firebase, oracle)</t>
-  </si>
-  <si>
     <t>안드로이드스튜디오 JAVA언어 사용</t>
   </si>
   <si>
@@ -379,26 +351,10 @@
     <t xml:space="preserve">신고관리 - 부적절한 챌린지인증을 올렸을 경우 심의에 따라 경고/차단을 한다. </t>
   </si>
   <si>
-    <t>관리자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>웹 로그인 / 회원가입</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>앱 메인화면</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>앱 챌린지</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 웹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인 후 마이페이지에서 회원정보 수정 및 탈퇴</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -439,25 +395,239 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>구독자
+    <t>소개글, 닉네임, 경력, 저서 등 ….유투브, 인스타 계정 등 등록</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>user 테이블</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutor 테이블</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강생
 강사
 공통</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>소개글, 닉네임, 경력, 저서 등 ….유투브, 인스타 계정 등 등록</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>강사</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>user 테이블</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>tutor 테이블</t>
+    <t>강사등록</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의개설</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목,강의요약, 추천대상,선수지식,카테고리선정,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>커리큘럼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>커버이미지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>섹션나누기,무료공개수업설정 , 수업편집(수업제목, 영상업로드,수업자료업로드, 수업노트작성)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>강사설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>강사프로필 노출</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주 묻는 질문이나 흥미 있는 질문과 답을 보여준다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격, 공개여부,수강기한,질문받기(질문 안내글 설정 및 수정)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬네일 이미지등록, 홍보영상등록,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세소개</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세소게 등록, 템플릿 적용</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주 묻는  질문</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>class 테이블</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 학습 강의,  주간 학습 진도표, 연간 학습진도표</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수강 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>내학습</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습중, 완강, 목록 출력(수강률 표시)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 게시글</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강자가 작성한 게시글 및 답변 출력</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강바구니</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매내역</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림설정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 수신 여부설정( 공지사항, 강의 새소식, 작성한 게시글 댓글이 등록될때 알림)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강 찜한 강의 목록 보기 및 결제 기능 구현</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자…</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">메뉴별 강의목록 출력 (난이도, 가격별, 정렬 and  추천순,인기순, 최신순, 좋아요순, 평점순 정렬) </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>footer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체, 개발.프로그래밍, 게임게발, 데이터 사이언스, 인공지능, 보안.네트워크,비즈니스.마케팅 하드웨어 
+디자인.아트, 외국어</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인/회원가입</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modal 기능으로 로그인/회원가입 창 구현</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인시  수강바구니, 수강자 프로필 사진(원형으로)출력</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의목록 보기 및 심사 후 게시 또는 반려 통보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강평 및 게시글에 욕설이나 비방글 블라인드 처리(신고받아서)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강결제 및 수강완료시 포인트 적립</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수강결제 된 강의 목록 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>수강자 프로필…</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능별 사용 DB(Firebase,  mariaDB)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자인경우 메뉴에 관리자 전용 홈페이지로 이동</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>course
+테이블</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> basket </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +635,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -539,6 +709,19 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -578,7 +761,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -712,11 +895,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -762,6 +960,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -771,9 +993,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -783,71 +1029,38 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1150,12 +1363,12 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
@@ -1196,12 +1409,12 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" customHeight="1">
       <c r="B9" s="4" t="s">
@@ -1306,10 +1519,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:J261"/>
+  <dimension ref="B1:J245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:G12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1317,8 +1530,10 @@
     <col min="1" max="1" width="0.5703125" style="11" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="11" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" style="11" customWidth="1"/>
-    <col min="4" max="6" width="12.5703125" style="11"/>
-    <col min="7" max="7" width="94.28515625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="15" style="11" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="94.28515625" style="22" customWidth="1"/>
     <col min="8" max="8" width="11.140625" style="11" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" style="18" customWidth="1"/>
     <col min="10" max="10" width="16" style="18" customWidth="1"/>
@@ -1337,12 +1552,12 @@
         <v>16</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="23" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="12" t="s">
@@ -1358,12 +1573,12 @@
     <row r="3" spans="2:10" ht="36" customHeight="1">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
+      <c r="D3" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="13"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
@@ -1374,15 +1589,15 @@
       <c r="D4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="42"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="47" t="s">
-        <v>127</v>
+      <c r="G4" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="26.25" customHeight="1">
@@ -1390,94 +1605,96 @@
         <v>1</v>
       </c>
       <c r="C5" s="15"/>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>129</v>
+      <c r="E5" s="49" t="s">
+        <v>119</v>
       </c>
       <c r="F5" s="15"/>
-      <c r="G5" s="47" t="s">
-        <v>126</v>
+      <c r="G5" s="24" t="s">
+        <v>113</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>132</v>
+        <v>108</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="26.25" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="15"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="43"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="47" t="s">
-        <v>125</v>
+      <c r="G6" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="J6" s="40"/>
+        <v>108</v>
+      </c>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="2:10" ht="26.25" customHeight="1">
       <c r="B7" s="13">
         <v>3</v>
       </c>
       <c r="C7" s="15"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="43"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>107</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" s="40"/>
+        <v>108</v>
+      </c>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="2:10" ht="26.25" customHeight="1">
       <c r="B8" s="13">
         <v>4</v>
       </c>
       <c r="C8" s="15"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="44"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="47" t="s">
-        <v>119</v>
+      <c r="G8" s="24" t="s">
+        <v>106</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="J8" s="39"/>
+        <v>109</v>
+      </c>
+      <c r="J8" s="34"/>
     </row>
     <row r="9" spans="2:10" ht="26.25" customHeight="1">
       <c r="B9" s="13">
         <v>10</v>
       </c>
       <c r="C9" s="15"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="38" t="s">
-        <v>131</v>
+      <c r="D9" s="33"/>
+      <c r="E9" s="32" t="s">
+        <v>120</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>130</v>
+        <v>111</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>116</v>
       </c>
       <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="38" t="s">
-        <v>133</v>
+      <c r="I9" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="30" customHeight="1">
@@ -1485,36 +1702,36 @@
         <v>11</v>
       </c>
       <c r="C10" s="15"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="47"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="40"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="2:10" ht="26.25" customHeight="1">
       <c r="B11" s="13">
         <v>12</v>
       </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="47"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="14"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="39"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="2:10" ht="26.25" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="D12" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="14"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -1524,378 +1741,398 @@
         <v>13</v>
       </c>
       <c r="C13" s="15"/>
-      <c r="D13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="15"/>
+      <c r="D13" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>124</v>
+      </c>
       <c r="F13" s="15"/>
-      <c r="G13" s="47" t="s">
-        <v>29</v>
+      <c r="G13" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="I13" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="14" spans="2:10" ht="26.25" customHeight="1">
       <c r="B14" s="13">
         <v>14</v>
       </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="15"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="F14" s="14"/>
-      <c r="G14" s="48" t="s">
-        <v>30</v>
+      <c r="G14" s="25" t="s">
+        <v>126</v>
       </c>
       <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="I14" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B15" s="13">
-        <v>15</v>
-      </c>
+      <c r="B15" s="13"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="47" t="s">
-        <v>31</v>
+      <c r="D15" s="33"/>
+      <c r="E15" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="25" t="s">
+        <v>134</v>
       </c>
       <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="I15" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="2:10" ht="26.25" customHeight="1">
       <c r="B16" s="13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="15"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="47" t="s">
-        <v>32</v>
+      <c r="G16" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="I16" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="2:10" ht="26.25" customHeight="1">
       <c r="B17" s="13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="15"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="15" t="s">
+        <v>127</v>
+      </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="47" t="s">
-        <v>33</v>
+      <c r="G17" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="I17" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" spans="2:10" ht="26.25" customHeight="1">
       <c r="B18" s="13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="17" t="s">
+        <v>135</v>
+      </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="47"/>
+      <c r="G18" s="24" t="s">
+        <v>130</v>
+      </c>
       <c r="H18" s="14"/>
       <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="J18" s="33"/>
     </row>
     <row r="19" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B19" s="13"/>
+      <c r="B19" s="13">
+        <v>18</v>
+      </c>
       <c r="C19" s="15"/>
-      <c r="D19" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="24" t="s">
+        <v>129</v>
+      </c>
       <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
+      <c r="I19" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B20" s="13">
-        <v>19</v>
-      </c>
+      <c r="B20" s="13"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="48" t="s">
-        <v>36</v>
-      </c>
+      <c r="D20" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="14"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
     </row>
     <row r="21" spans="2:10" ht="26.25" customHeight="1">
       <c r="B21" s="13">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="47" t="s">
-        <v>37</v>
+      <c r="F21" s="14"/>
+      <c r="G21" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="I21" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="22" spans="2:10" ht="26.25" customHeight="1">
       <c r="B22" s="13">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="49" t="s">
-        <v>38</v>
+      <c r="G22" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="I22" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="J22" s="54"/>
     </row>
     <row r="23" spans="2:10" ht="26.25" customHeight="1">
       <c r="B23" s="13">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="47" t="s">
-        <v>39</v>
+      <c r="G23" s="26" t="s">
+        <v>143</v>
       </c>
       <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="I23" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="J23" s="54"/>
     </row>
     <row r="24" spans="2:10" ht="26.25" customHeight="1">
       <c r="B24" s="13">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="47" t="s">
-        <v>41</v>
+      <c r="G24" s="24" t="s">
+        <v>150</v>
       </c>
       <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="I24" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="J24" s="53" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="25" spans="2:10" ht="26.25" customHeight="1">
       <c r="B25" s="13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="48" t="s">
-        <v>42</v>
+      <c r="G25" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="17"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="54"/>
     </row>
     <row r="26" spans="2:10" ht="26.25" customHeight="1">
       <c r="B26" s="13">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="17"/>
+      <c r="G26" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="2:10" ht="26.25" customHeight="1">
       <c r="B27" s="13">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="47" t="s">
-        <v>45</v>
+      <c r="G27" s="26" t="s">
+        <v>166</v>
       </c>
       <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="17"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="54"/>
     </row>
     <row r="28" spans="2:10" ht="26.25" customHeight="1">
       <c r="B28" s="13">
-        <v>27</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>46</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C28" s="15"/>
       <c r="D28" s="15" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="47" t="s">
-        <v>48</v>
+      <c r="G28" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="17"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="54"/>
     </row>
     <row r="29" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B29" s="13">
-        <v>28</v>
-      </c>
+      <c r="B29" s="13"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="17"/>
-    </row>
-    <row r="30" spans="2:10" ht="26.25" customHeight="1">
+      <c r="D29" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="54"/>
+    </row>
+    <row r="30" spans="2:10" ht="33.75" customHeight="1">
       <c r="B30" s="13">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="15"/>
+      <c r="G30" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="H30" s="14"/>
       <c r="I30" s="15"/>
-      <c r="J30" s="17"/>
+      <c r="J30" s="19"/>
     </row>
     <row r="31" spans="2:10" ht="26.25" customHeight="1">
       <c r="B31" s="13">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" s="15"/>
+      <c r="G31" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="14"/>
       <c r="I31" s="15"/>
-      <c r="J31" s="17"/>
+      <c r="J31" s="15"/>
     </row>
     <row r="32" spans="2:10" ht="26.25" customHeight="1">
       <c r="B32" s="13">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C32" s="15"/>
-      <c r="D32" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="17"/>
+      <c r="D32" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="H32" s="15"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="15"/>
-      <c r="J32" s="17"/>
+      <c r="J32" s="15"/>
     </row>
     <row r="33" spans="2:10" ht="26.25" customHeight="1">
       <c r="B33" s="13">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C33" s="15"/>
-      <c r="D33" s="15" t="s">
-        <v>57</v>
+      <c r="D33" s="32" t="s">
+        <v>158</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="15"/>
+      <c r="G33" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="H33" s="14"/>
       <c r="I33" s="15"/>
-      <c r="J33" s="17"/>
+      <c r="J33" s="15"/>
     </row>
     <row r="34" spans="2:10" ht="26.25" customHeight="1">
       <c r="B34" s="13">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C34" s="15"/>
-      <c r="D34" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="D34" s="34"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" s="15"/>
+      <c r="G34" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="H34" s="14"/>
       <c r="I34" s="15"/>
-      <c r="J34" s="17"/>
+      <c r="J34" s="15"/>
     </row>
     <row r="35" spans="2:10" ht="26.25" customHeight="1">
       <c r="B35" s="13"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
+      <c r="D35" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="40"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="42"/>
       <c r="H35" s="14"/>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
@@ -1910,8 +2147,8 @@
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="47" t="s">
-        <v>62</v>
+      <c r="G36" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="15"/>
@@ -1923,12 +2160,12 @@
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
-      <c r="G37" s="47" t="s">
-        <v>64</v>
+      <c r="G37" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="15"/>
@@ -1940,12 +2177,12 @@
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="47" t="s">
-        <v>66</v>
+      <c r="G38" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="15"/>
@@ -1957,12 +2194,12 @@
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="47" t="s">
-        <v>68</v>
+      <c r="G39" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="15"/>
@@ -1974,12 +2211,12 @@
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
-      <c r="G40" s="47" t="s">
-        <v>69</v>
+      <c r="G40" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="15"/>
@@ -1991,12 +2228,12 @@
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
-      <c r="G41" s="47" t="s">
-        <v>70</v>
+      <c r="G41" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
@@ -2008,12 +2245,12 @@
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
-      <c r="G42" s="47" t="s">
-        <v>72</v>
+      <c r="G42" s="24" t="s">
+        <v>161</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="15"/>
@@ -2025,12 +2262,12 @@
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
-      <c r="G43" s="47" t="s">
-        <v>73</v>
+      <c r="G43" s="24" t="s">
+        <v>162</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="15"/>
@@ -2042,12 +2279,12 @@
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
-      <c r="G44" s="47" t="s">
-        <v>74</v>
+      <c r="G44" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="H44" s="14"/>
       <c r="I44" s="15"/>
@@ -2059,12 +2296,12 @@
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
-      <c r="G45" s="47" t="s">
-        <v>76</v>
+      <c r="G45" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="15"/>
@@ -2076,216 +2313,408 @@
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
-      <c r="G46" s="47" t="s">
-        <v>77</v>
+      <c r="G46" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="15"/>
       <c r="J46" s="15"/>
     </row>
-    <row r="47" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B47" s="13"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-    </row>
-    <row r="48" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B48" s="13">
-        <v>45</v>
-      </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="H48" s="14"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-    </row>
-    <row r="49" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B49" s="13">
-        <v>46</v>
-      </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="H49" s="14"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-    </row>
+    <row r="47" spans="2:10" ht="26.25" customHeight="1"/>
+    <row r="48" spans="2:10" ht="26.25" customHeight="1"/>
+    <row r="49" spans="2:10" ht="26.25" customHeight="1"/>
     <row r="50" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B50" s="13">
-        <v>47</v>
-      </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="H50" s="14"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
+      <c r="D50" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="16"/>
     </row>
     <row r="51" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B51" s="18"/>
+      <c r="D51" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="16"/>
     </row>
     <row r="52" spans="2:10" ht="26.25" customHeight="1"/>
     <row r="53" spans="2:10" ht="26.25" customHeight="1"/>
     <row r="54" spans="2:10" ht="26.25" customHeight="1"/>
-    <row r="55" spans="2:10" ht="26.25" customHeight="1"/>
-    <row r="56" spans="2:10" ht="26.25" customHeight="1"/>
-    <row r="57" spans="2:10" ht="26.25" customHeight="1"/>
-    <row r="58" spans="2:10" ht="26.25" customHeight="1"/>
-    <row r="59" spans="2:10" ht="26.25" customHeight="1"/>
-    <row r="60" spans="2:10" ht="26.25" customHeight="1"/>
-    <row r="61" spans="2:10" ht="26.25" customHeight="1"/>
-    <row r="62" spans="2:10" ht="26.25" customHeight="1"/>
-    <row r="63" spans="2:10" ht="26.25" customHeight="1"/>
-    <row r="64" spans="2:10" ht="26.25" customHeight="1"/>
-    <row r="65" spans="2:10" ht="26.25" customHeight="1"/>
+    <row r="55" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B55" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="44"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+    </row>
+    <row r="57" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B57" s="13">
+        <v>1</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" s="14"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B58" s="13">
+        <v>2</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H58" s="14"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B59" s="13"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="36"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+    </row>
+    <row r="60" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B60" s="13">
+        <v>3</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H60" s="14"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+    </row>
+    <row r="61" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B61" s="13">
+        <v>4</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H61" s="14"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+    </row>
+    <row r="62" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B62" s="13">
+        <v>5</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H62" s="14"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B63" s="13">
+        <v>6</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H63" s="14"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+    </row>
+    <row r="64" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B64" s="13">
+        <v>7</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H64" s="14"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+    </row>
+    <row r="65" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B65" s="13">
+        <v>8</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H65" s="14"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="66" spans="2:10" ht="26.25" customHeight="1">
-      <c r="D66" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E66" s="16"/>
+      <c r="B66" s="13">
+        <v>9</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="H66" s="14"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
     </row>
     <row r="67" spans="2:10" ht="26.25" customHeight="1">
-      <c r="D67" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E67" s="16"/>
-    </row>
-    <row r="68" spans="2:10" ht="26.25" customHeight="1"/>
-    <row r="69" spans="2:10" ht="26.25" customHeight="1"/>
-    <row r="70" spans="2:10" ht="26.25" customHeight="1"/>
+      <c r="B67" s="13">
+        <v>10</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H67" s="14"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+    </row>
+    <row r="68" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B68" s="13">
+        <v>11</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H68" s="14"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+    </row>
+    <row r="69" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B69" s="13"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" s="36"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+    </row>
+    <row r="70" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B70" s="13">
+        <v>12</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H70" s="14"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+    </row>
     <row r="71" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="13">
+        <v>13</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="15"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H71" s="14"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+    </row>
+    <row r="72" spans="2:10" ht="26.25" customHeight="1">
+      <c r="B72" s="13">
         <v>14</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J71" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E72" s="36"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="13"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H72" s="14"/>
       <c r="I72" s="15"/>
       <c r="J72" s="15"/>
     </row>
     <row r="73" spans="2:10" ht="26.25" customHeight="1">
       <c r="B73" s="13">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
-      <c r="G73" s="47" t="s">
-        <v>87</v>
+      <c r="G73" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="H73" s="14"/>
       <c r="I73" s="15"/>
-      <c r="J73" s="15" t="s">
-        <v>88</v>
-      </c>
+      <c r="J73" s="15"/>
     </row>
     <row r="74" spans="2:10" ht="26.25" customHeight="1">
       <c r="B74" s="13">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
-      <c r="G74" s="47" t="s">
-        <v>89</v>
+      <c r="G74" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="H74" s="14"/>
       <c r="I74" s="15"/>
-      <c r="J74" s="15" t="s">
-        <v>90</v>
-      </c>
+      <c r="J74" s="15"/>
     </row>
     <row r="75" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B75" s="13"/>
+      <c r="B75" s="13">
+        <v>17</v>
+      </c>
       <c r="C75" s="15"/>
-      <c r="D75" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E75" s="37"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="29"/>
+      <c r="D75" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="H75" s="14"/>
       <c r="I75" s="15"/>
       <c r="J75" s="15"/>
     </row>
     <row r="76" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B76" s="13">
-        <v>3</v>
-      </c>
+      <c r="B76" s="13"/>
       <c r="C76" s="15"/>
       <c r="D76" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="47" t="s">
-        <v>91</v>
+      <c r="F76" s="14"/>
+      <c r="G76" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="H76" s="14"/>
       <c r="I76" s="15"/>
@@ -2293,52 +2722,46 @@
     </row>
     <row r="77" spans="2:10" ht="26.25" customHeight="1">
       <c r="B77" s="13">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="49" t="s">
-        <v>92</v>
+      <c r="F77" s="14"/>
+      <c r="G77" s="25" t="s">
+        <v>100</v>
       </c>
       <c r="H77" s="14"/>
       <c r="I77" s="15"/>
       <c r="J77" s="15"/>
     </row>
     <row r="78" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B78" s="13">
-        <v>5</v>
-      </c>
+      <c r="B78" s="13"/>
       <c r="C78" s="15"/>
-      <c r="D78" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="47" t="s">
-        <v>93</v>
-      </c>
+      <c r="D78" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="36"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="38"/>
       <c r="H78" s="14"/>
       <c r="I78" s="15"/>
-      <c r="J78" s="15" t="s">
-        <v>94</v>
-      </c>
+      <c r="J78" s="15"/>
     </row>
     <row r="79" spans="2:10" ht="26.25" customHeight="1">
       <c r="B79" s="13">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="47" t="s">
-        <v>95</v>
+      <c r="F79" s="14"/>
+      <c r="G79" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="H79" s="14"/>
       <c r="I79" s="15"/>
@@ -2346,16 +2769,16 @@
     </row>
     <row r="80" spans="2:10" ht="26.25" customHeight="1">
       <c r="B80" s="13">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
-      <c r="G80" s="47" t="s">
-        <v>96</v>
+      <c r="G80" s="24" t="s">
+        <v>101</v>
       </c>
       <c r="H80" s="14"/>
       <c r="I80" s="15"/>
@@ -2363,35 +2786,33 @@
     </row>
     <row r="81" spans="2:10" ht="26.25" customHeight="1">
       <c r="B81" s="13">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
-      <c r="G81" s="47" t="s">
-        <v>97</v>
+      <c r="G81" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="H81" s="14"/>
       <c r="I81" s="15"/>
-      <c r="J81" s="15" t="s">
-        <v>98</v>
-      </c>
+      <c r="J81" s="15"/>
     </row>
     <row r="82" spans="2:10" ht="26.25" customHeight="1">
       <c r="B82" s="13">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
-      <c r="G82" s="47" t="s">
-        <v>99</v>
+      <c r="G82" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="H82" s="14"/>
       <c r="I82" s="15"/>
@@ -2399,16 +2820,16 @@
     </row>
     <row r="83" spans="2:10" ht="26.25" customHeight="1">
       <c r="B83" s="13">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
-      <c r="G83" s="47" t="s">
-        <v>100</v>
+      <c r="G83" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="H83" s="14"/>
       <c r="I83" s="15"/>
@@ -2416,193 +2837,201 @@
     </row>
     <row r="84" spans="2:10" ht="26.25" customHeight="1">
       <c r="B84" s="13">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="15" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
-      <c r="G84" s="49" t="s">
-        <v>101</v>
+      <c r="G84" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="H84" s="14"/>
       <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
+      <c r="J84" s="17"/>
     </row>
     <row r="85" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B85" s="13"/>
+      <c r="B85" s="13">
+        <v>24</v>
+      </c>
       <c r="C85" s="15"/>
-      <c r="D85" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E85" s="37"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="14"/>
+      <c r="D85" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H85" s="15"/>
       <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
+      <c r="J85" s="17"/>
     </row>
     <row r="86" spans="2:10" ht="26.25" customHeight="1">
       <c r="B86" s="13">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C86" s="15"/>
       <c r="D86" s="15" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
-      <c r="G86" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="H86" s="14"/>
+      <c r="G86" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H86" s="15"/>
       <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
+      <c r="J86" s="17"/>
     </row>
     <row r="87" spans="2:10" ht="26.25" customHeight="1">
       <c r="B87" s="13">
-        <v>13</v>
-      </c>
-      <c r="C87" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="D87" s="15" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E87" s="15"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="H87" s="14"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H87" s="15"/>
       <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
+      <c r="J87" s="17"/>
     </row>
     <row r="88" spans="2:10" ht="26.25" customHeight="1">
       <c r="B88" s="13">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C88" s="15"/>
       <c r="D88" s="15" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
-      <c r="G88" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="H88" s="14"/>
+      <c r="G88" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H88" s="15"/>
       <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
+      <c r="J88" s="17"/>
     </row>
     <row r="89" spans="2:10" ht="26.25" customHeight="1">
       <c r="B89" s="13">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C89" s="15"/>
       <c r="D89" s="15" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
-      <c r="G89" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="H89" s="14"/>
+      <c r="G89" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H89" s="15"/>
       <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
+      <c r="J89" s="17"/>
     </row>
     <row r="90" spans="2:10" ht="26.25" customHeight="1">
       <c r="B90" s="13">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
-      <c r="G90" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="H90" s="14"/>
+      <c r="G90" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" s="15"/>
       <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
+      <c r="J90" s="17"/>
     </row>
     <row r="91" spans="2:10" ht="26.25" customHeight="1">
       <c r="B91" s="13">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C91" s="15"/>
-      <c r="D91" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E91" s="15"/>
+      <c r="D91" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E91" s="17"/>
       <c r="F91" s="15"/>
-      <c r="G91" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="H91" s="14"/>
+      <c r="G91" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H91" s="15"/>
       <c r="I91" s="15"/>
-      <c r="J91" s="15"/>
+      <c r="J91" s="17"/>
     </row>
     <row r="92" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B92" s="13"/>
+      <c r="B92" s="13">
+        <v>31</v>
+      </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E92" s="15"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="H92" s="14"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H92" s="15"/>
       <c r="I92" s="15"/>
-      <c r="J92" s="15"/>
+      <c r="J92" s="17"/>
     </row>
     <row r="93" spans="2:10" ht="26.25" customHeight="1">
       <c r="B93" s="13">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E93" s="15"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="H93" s="14"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H93" s="15"/>
       <c r="I93" s="15"/>
-      <c r="J93" s="15"/>
+      <c r="J93" s="17"/>
     </row>
     <row r="94" spans="2:10" ht="26.25" customHeight="1">
       <c r="B94" s="13"/>
       <c r="C94" s="15"/>
-      <c r="D94" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E94" s="37"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="29"/>
+      <c r="D94" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E94" s="36"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="38"/>
       <c r="H94" s="14"/>
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
     </row>
     <row r="95" spans="2:10" ht="26.25" customHeight="1">
       <c r="B95" s="13">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E95" s="15"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="48" t="s">
-        <v>36</v>
+      <c r="F95" s="15"/>
+      <c r="G95" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="H95" s="14"/>
       <c r="I95" s="15"/>
@@ -2610,16 +3039,16 @@
     </row>
     <row r="96" spans="2:10" ht="26.25" customHeight="1">
       <c r="B96" s="13">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="15" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
-      <c r="G96" s="47" t="s">
-        <v>110</v>
+      <c r="G96" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="H96" s="14"/>
       <c r="I96" s="15"/>
@@ -2627,16 +3056,16 @@
     </row>
     <row r="97" spans="2:10" ht="26.25" customHeight="1">
       <c r="B97" s="13">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="15" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
-      <c r="G97" s="49" t="s">
-        <v>38</v>
+      <c r="G97" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="H97" s="14"/>
       <c r="I97" s="15"/>
@@ -2644,16 +3073,16 @@
     </row>
     <row r="98" spans="2:10" ht="26.25" customHeight="1">
       <c r="B98" s="13">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C98" s="15"/>
       <c r="D98" s="15" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
-      <c r="G98" s="47" t="s">
-        <v>39</v>
+      <c r="G98" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="H98" s="14"/>
       <c r="I98" s="15"/>
@@ -2661,16 +3090,16 @@
     </row>
     <row r="99" spans="2:10" ht="26.25" customHeight="1">
       <c r="B99" s="13">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C99" s="15"/>
       <c r="D99" s="15" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
-      <c r="G99" s="47" t="s">
-        <v>111</v>
+      <c r="G99" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="H99" s="14"/>
       <c r="I99" s="15"/>
@@ -2678,443 +3107,189 @@
     </row>
     <row r="100" spans="2:10" ht="26.25" customHeight="1">
       <c r="B100" s="13">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C100" s="15"/>
       <c r="D100" s="15" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
-      <c r="G100" s="48" t="s">
-        <v>112</v>
+      <c r="G100" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="H100" s="14"/>
       <c r="I100" s="15"/>
-      <c r="J100" s="17"/>
+      <c r="J100" s="15"/>
     </row>
     <row r="101" spans="2:10" ht="26.25" customHeight="1">
       <c r="B101" s="13">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
-      <c r="G101" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="H101" s="15"/>
+      <c r="G101" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="H101" s="14"/>
       <c r="I101" s="15"/>
-      <c r="J101" s="17"/>
+      <c r="J101" s="15"/>
     </row>
     <row r="102" spans="2:10" ht="26.25" customHeight="1">
       <c r="B102" s="13">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C102" s="15"/>
       <c r="D102" s="15" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
-      <c r="G102" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="H102" s="15"/>
+      <c r="G102" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H102" s="14"/>
       <c r="I102" s="15"/>
-      <c r="J102" s="17"/>
+      <c r="J102" s="15"/>
     </row>
     <row r="103" spans="2:10" ht="26.25" customHeight="1">
       <c r="B103" s="13">
-        <v>26</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>46</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C103" s="15"/>
       <c r="D103" s="15" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E103" s="15"/>
       <c r="F103" s="15"/>
-      <c r="G103" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="H103" s="15"/>
+      <c r="G103" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H103" s="14"/>
       <c r="I103" s="15"/>
-      <c r="J103" s="17"/>
+      <c r="J103" s="15"/>
     </row>
     <row r="104" spans="2:10" ht="26.25" customHeight="1">
       <c r="B104" s="13">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="15" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
-      <c r="G104" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="H104" s="15"/>
+      <c r="G104" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H104" s="14"/>
       <c r="I104" s="15"/>
-      <c r="J104" s="17"/>
+      <c r="J104" s="15"/>
     </row>
     <row r="105" spans="2:10" ht="26.25" customHeight="1">
       <c r="B105" s="13">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="15" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
-      <c r="G105" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="H105" s="15"/>
+      <c r="G105" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H105" s="14"/>
       <c r="I105" s="15"/>
-      <c r="J105" s="17"/>
+      <c r="J105" s="15"/>
     </row>
     <row r="106" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B106" s="13">
-        <v>29</v>
-      </c>
+      <c r="B106" s="13"/>
       <c r="C106" s="15"/>
-      <c r="D106" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="H106" s="15"/>
+      <c r="D106" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E106" s="36"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="38"/>
+      <c r="H106" s="14"/>
       <c r="I106" s="15"/>
-      <c r="J106" s="17"/>
+      <c r="J106" s="15"/>
     </row>
     <row r="107" spans="2:10" ht="26.25" customHeight="1">
       <c r="B107" s="13">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C107" s="15"/>
-      <c r="D107" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E107" s="17"/>
+      <c r="D107" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E107" s="15"/>
       <c r="F107" s="15"/>
-      <c r="G107" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="H107" s="15"/>
+      <c r="G107" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H107" s="14"/>
       <c r="I107" s="15"/>
-      <c r="J107" s="17"/>
+      <c r="J107" s="15"/>
     </row>
     <row r="108" spans="2:10" ht="26.25" customHeight="1">
       <c r="B108" s="13">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C108" s="15"/>
       <c r="D108" s="15" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
-      <c r="G108" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="H108" s="15"/>
+      <c r="G108" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H108" s="14"/>
       <c r="I108" s="15"/>
-      <c r="J108" s="17"/>
+      <c r="J108" s="15"/>
     </row>
     <row r="109" spans="2:10" ht="26.25" customHeight="1">
       <c r="B109" s="13">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C109" s="15"/>
       <c r="D109" s="15" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
-      <c r="G109" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="H109" s="15"/>
+      <c r="G109" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H109" s="14"/>
       <c r="I109" s="15"/>
-      <c r="J109" s="17"/>
-    </row>
-    <row r="110" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B110" s="13"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E110" s="37"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="29"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="15"/>
-    </row>
-    <row r="111" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B111" s="13">
-        <v>33</v>
-      </c>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="H111" s="14"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="15"/>
-    </row>
-    <row r="112" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B112" s="13">
-        <v>34</v>
-      </c>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E112" s="15"/>
-      <c r="F112" s="15"/>
-      <c r="G112" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="H112" s="14"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="15"/>
-    </row>
-    <row r="113" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B113" s="13">
-        <v>35</v>
-      </c>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="H113" s="14"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="15"/>
-    </row>
-    <row r="114" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B114" s="13">
-        <v>36</v>
-      </c>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="H114" s="14"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="15"/>
-    </row>
-    <row r="115" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B115" s="13">
-        <v>37</v>
-      </c>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="H115" s="14"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="15"/>
-    </row>
-    <row r="116" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B116" s="13">
-        <v>38</v>
-      </c>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="H116" s="14"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="15"/>
-    </row>
-    <row r="117" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B117" s="13">
-        <v>39</v>
-      </c>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="H117" s="14"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="15"/>
-    </row>
-    <row r="118" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B118" s="13">
-        <v>40</v>
-      </c>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="H118" s="14"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="15"/>
-    </row>
-    <row r="119" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B119" s="13">
-        <v>41</v>
-      </c>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="H119" s="14"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="15"/>
-    </row>
-    <row r="120" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B120" s="13">
-        <v>42</v>
-      </c>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="H120" s="14"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="15"/>
-    </row>
-    <row r="121" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B121" s="13">
-        <v>43</v>
-      </c>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="H121" s="14"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="15"/>
-    </row>
-    <row r="122" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B122" s="13"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="E122" s="37"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="29"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="15"/>
-    </row>
-    <row r="123" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B123" s="13">
-        <v>44</v>
-      </c>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="H123" s="14"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="15"/>
-    </row>
-    <row r="124" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B124" s="13">
-        <v>45</v>
-      </c>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="H124" s="14"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="15"/>
-    </row>
-    <row r="125" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B125" s="13">
-        <v>46</v>
-      </c>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="H125" s="14"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="15"/>
-    </row>
-    <row r="126" spans="2:10" ht="26.25" customHeight="1"/>
-    <row r="127" spans="2:10" ht="26.25" customHeight="1"/>
-    <row r="128" spans="2:10" ht="26.25" customHeight="1"/>
+      <c r="J109" s="15"/>
+    </row>
+    <row r="110" spans="2:10" ht="26.25" customHeight="1"/>
+    <row r="111" spans="2:10" ht="26.25" customHeight="1"/>
+    <row r="112" spans="2:10" ht="26.25" customHeight="1"/>
+    <row r="113" ht="26.25" customHeight="1"/>
+    <row r="114" ht="26.25" customHeight="1"/>
+    <row r="115" ht="26.25" customHeight="1"/>
+    <row r="116" ht="26.25" customHeight="1"/>
+    <row r="117" ht="26.25" customHeight="1"/>
+    <row r="118" ht="26.25" customHeight="1"/>
+    <row r="119" ht="26.25" customHeight="1"/>
+    <row r="120" ht="26.25" customHeight="1"/>
+    <row r="121" ht="26.25" customHeight="1"/>
+    <row r="122" ht="26.25" customHeight="1"/>
+    <row r="123" ht="26.25" customHeight="1"/>
+    <row r="124" ht="26.25" customHeight="1"/>
+    <row r="125" ht="26.25" customHeight="1"/>
+    <row r="126" ht="26.25" customHeight="1"/>
+    <row r="127" ht="26.25" customHeight="1"/>
+    <row r="128" ht="26.25" customHeight="1"/>
     <row r="129" ht="26.25" customHeight="1"/>
     <row r="130" ht="26.25" customHeight="1"/>
     <row r="131" ht="26.25" customHeight="1"/>
@@ -3232,40 +3407,27 @@
     <row r="243" ht="26.25" customHeight="1"/>
     <row r="244" ht="26.25" customHeight="1"/>
     <row r="245" ht="26.25" customHeight="1"/>
-    <row r="246" ht="26.25" customHeight="1"/>
-    <row r="247" ht="26.25" customHeight="1"/>
-    <row r="248" ht="26.25" customHeight="1"/>
-    <row r="249" ht="26.25" customHeight="1"/>
-    <row r="250" ht="26.25" customHeight="1"/>
-    <row r="251" ht="26.25" customHeight="1"/>
-    <row r="252" ht="26.25" customHeight="1"/>
-    <row r="253" ht="26.25" customHeight="1"/>
-    <row r="254" ht="26.25" customHeight="1"/>
-    <row r="255" ht="26.25" customHeight="1"/>
-    <row r="256" ht="26.25" customHeight="1"/>
-    <row r="257" ht="26.25" customHeight="1"/>
-    <row r="258" ht="26.25" customHeight="1"/>
-    <row r="259" ht="26.25" customHeight="1"/>
-    <row r="260" ht="26.25" customHeight="1"/>
-    <row r="261" ht="26.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="D85:G85"/>
+  <mergeCells count="19">
     <mergeCell ref="D94:G94"/>
-    <mergeCell ref="D110:G110"/>
-    <mergeCell ref="D122:G122"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D56:G56"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D29:G29"/>
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="D5:D11"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="J13:J19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
